--- a/data_year/zb/对外经济贸易/按国别(地区)分对外经济合作/对外承包工程完成营业额/中国对北美洲各国(地区)承包工程完成营业额.xlsx
+++ b/data_year/zb/对外经济贸易/按国别(地区)分对外经济合作/对外承包工程完成营业额/中国对北美洲各国(地区)承包工程完成营业额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,428 +468,255 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375</v>
+        <v>5025</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>12914</v>
+        <v>88832</v>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>200</v>
+      </c>
       <c r="G2" t="n">
-        <v>12539</v>
+        <v>83607</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>645</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>16484</v>
+      </c>
+      <c r="C3" t="n">
+        <v>511</v>
+      </c>
       <c r="D3" t="n">
-        <v>24542</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+        <v>142232</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>28</v>
+      </c>
       <c r="G3" t="n">
-        <v>23897</v>
+        <v>125204</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1364</v>
+        <v>6777</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>57304</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>100694</v>
+      </c>
+      <c r="E4" t="n">
+        <v>43</v>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>55940</v>
+        <v>93654</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>740</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>35885</v>
+      </c>
+      <c r="C5" t="n">
+        <v>609</v>
+      </c>
       <c r="D5" t="n">
-        <v>16105</v>
+        <v>125919</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>15365</v>
+        <v>89425</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1195</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>12412</v>
+      </c>
+      <c r="C6" t="n">
+        <v>411</v>
+      </c>
       <c r="D6" t="n">
-        <v>24872</v>
+        <v>201736</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>23677</v>
+        <v>188912</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2388</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>10663</v>
+      </c>
+      <c r="C7" t="n">
+        <v>314</v>
+      </c>
       <c r="D7" t="n">
-        <v>43246</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+        <v>281411</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>40858</v>
+        <v>270429</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6675</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>8708</v>
+      </c>
+      <c r="C8" t="n">
+        <v>602</v>
+      </c>
       <c r="D8" t="n">
-        <v>120856</v>
+        <v>231590</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>114181</v>
+        <v>222280</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12793</v>
-      </c>
-      <c r="C9" t="n">
-        <v>526</v>
-      </c>
+        <v>13859</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>98526</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
+        <v>237285</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13</v>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>85207</v>
+        <v>223413</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4363</v>
+        <v>13262</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>58825</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
+        <v>245715</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>54462</v>
+        <v>232447</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10123</v>
+        <v>24185</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>93595</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+        <v>127013</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13</v>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>83472</v>
+        <v>102815</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5025</v>
+        <v>25028</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>88832</v>
+        <v>146504</v>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>200</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>83607</v>
+        <v>121476</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16484</v>
-      </c>
-      <c r="C13" t="n">
-        <v>511</v>
-      </c>
+        <v>38244</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>142232</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>28</v>
-      </c>
+        <v>226938</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>125204</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6777</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>100694</v>
-      </c>
-      <c r="E14" t="n">
-        <v>43</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>93654</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>35885</v>
-      </c>
-      <c r="C15" t="n">
-        <v>609</v>
-      </c>
-      <c r="D15" t="n">
-        <v>125919</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>89425</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>12412</v>
-      </c>
-      <c r="C16" t="n">
-        <v>411</v>
-      </c>
-      <c r="D16" t="n">
-        <v>201736</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>188912</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>10663</v>
-      </c>
-      <c r="C17" t="n">
-        <v>314</v>
-      </c>
-      <c r="D17" t="n">
-        <v>281411</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>270429</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>8708</v>
-      </c>
-      <c r="C18" t="n">
-        <v>602</v>
-      </c>
-      <c r="D18" t="n">
-        <v>231590</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>222280</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>13859</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>237285</v>
-      </c>
-      <c r="E19" t="n">
-        <v>13</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>223413</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>13262</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>245715</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>232447</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>24185</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>127013</v>
-      </c>
-      <c r="E21" t="n">
-        <v>13</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>102815</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>25028</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>146504</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>121476</v>
+        <v>188694</v>
       </c>
     </row>
   </sheetData>
